--- a/project/web/excel/subsidy_temple.xlsx
+++ b/project/web/excel/subsidy_temple.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFDF2D5-1E33-4377-A44C-51DB96C34B3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958F75A7-422E-41D6-9B43-D80E887D576A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -101,6 +101,9 @@
     </xf>
     <xf numFmtId="7" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -386,7 +389,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:H1048576"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,7 +398,7 @@
     <col min="2" max="2" width="30.77734375" style="1" customWidth="1"/>
     <col min="3" max="4" width="12.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.77734375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="5" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>

--- a/project/web/excel/subsidy_temple.xlsx
+++ b/project/web/excel/subsidy_temple.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958F75A7-422E-41D6-9B43-D80E887D576A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A87B065-C018-4333-9ADD-AC7E561F0770}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,46 +385,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F300"/>
+  <dimension ref="A1:G300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.77734375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="12.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="5" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/project/web/excel/subsidy_temple.xlsx
+++ b/project/web/excel/subsidy_temple.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A87B065-C018-4333-9ADD-AC7E561F0770}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D432FB9-8830-4209-8EF6-639643FAE645}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -57,6 +57,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -88,7 +94,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -104,6 +110,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -385,11 +394,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G300"/>
+  <dimension ref="A1:H300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,7 +411,7 @@
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -410,22 +419,23 @@
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
       <c r="G1" s="2"/>
+      <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
